--- a/biology/Médecine/Ichtyosarcotoxisme/Ichtyosarcotoxisme.xlsx
+++ b/biology/Médecine/Ichtyosarcotoxisme/Ichtyosarcotoxisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>L'ichtyosarcotoxisme désigne les intoxications alimentaires dues à l'ingestion de poissons ayant accumulé des toxines dans leur chair, leur peau ou leur viscères.
 Ce terme est issu du grec : ichtyos pour poisson, sarcos pour chair et toxicon pour poison.
-Les deux formes les plus fréquentes sont [1] :
+Les deux formes les plus fréquentes sont  :
 la ciguatera, probablement la plus connue et la plus fréquente, due à l'ingestion de poissons de récifs habituellement comestibles, mais ayant accumulé au cours de la chaine alimentaire des ciguatoxines produite par un phytoplancton ;
 le scombrotoxisme, ichtyosarcotoxisme de type histaminique, après la consommation de scombridés (poissons bleus à chair rouge) comme thons, maquereaux, bonites, daurades coryphène, espadons) est une intoxication due à la formation d'histamine après dégradation bactérienne de l'histidine présente en grande quantité dans la peau de ces poissons.
-D'autres intoxications plus rares existent comme [1] :
+D'autres intoxications plus rares existent comme  :
 le tétrodotoxisme est dû à la consommation de tétrodons. Toxique, le fugu peut être rendu comestible après une préparation dont certains cuisiniers japonais ont la maîtrise ;
 le clupèotoxisme, après ingestion de sardines tropicales ;
 la palotoxicose, après ingestion de crabes contaminés par des palotoxines ;
